--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -2524,22 +2524,62 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M38" t="n">
+        <v>10</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -2582,22 +2582,62 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>13</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -2640,22 +2640,62 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>11/05/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M40" t="n">
+        <v>11</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -2698,22 +2698,62 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M41" t="n">
+        <v>14</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -2756,22 +2756,62 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -2814,22 +2814,62 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M43" t="n">
+        <v>10</v>
+      </c>
+      <c r="N43" t="n">
+        <v>15</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4</v>
+      </c>
+      <c r="P43" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -516,22 +516,62 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M2" t="n">
+        <v>16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -574,22 +574,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,23 +518,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15/08/2025</t>
+          <t>31/08/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ceuta</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -554,82 +554,38 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.63</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>22/08/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Castellon</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -1297,78 +1253,6 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -570,22 +570,58 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>06/09/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Merida AD</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/cd-tenerife.xlsx
+++ b/new-stats/cd-tenerife.xlsx
@@ -624,22 +624,58 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14/09/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pontevedra</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
